--- a/Priority Effects - Github/Data/Species_List.xlsx
+++ b/Priority Effects - Github/Data/Species_List.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wynnekat/Priority-Effects/Priority Effects - Github/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A007D235-9FF9-5844-824E-87115E54DEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91036EF2-375C-B54C-9DD1-F2826B52978B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="740" windowWidth="36800" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$95</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="298">
   <si>
     <t>ACAVIR</t>
   </si>
@@ -100,9 +100,6 @@
     <t>DIGSAN</t>
   </si>
   <si>
-    <t>ECHSPP</t>
-  </si>
-  <si>
     <t>ERACIL</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>LACSER</t>
   </si>
   <si>
-    <t>LEPSPP</t>
-  </si>
-  <si>
     <t>LESCAP</t>
   </si>
   <si>
@@ -490,9 +484,6 @@
     <t>Hairy Crab Grass</t>
   </si>
   <si>
-    <t>Echinochloa sp.</t>
-  </si>
-  <si>
     <t>Eragrostis cilianensis</t>
   </si>
   <si>
@@ -607,15 +598,6 @@
     <t>Prickly Lettuce</t>
   </si>
   <si>
-    <t>likely combo of L. densiflorum and L. virginicum</t>
-  </si>
-  <si>
-    <t>Lepidium sp.</t>
-  </si>
-  <si>
-    <t>Pepper cress</t>
-  </si>
-  <si>
     <t>Lespedeza capitata</t>
   </si>
   <si>
@@ -899,13 +881,49 @@
   </si>
   <si>
     <t>Cocklebur</t>
+  </si>
+  <si>
+    <t>Seeded</t>
+  </si>
+  <si>
+    <t>Unseeded</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>LEPVIR</t>
+  </si>
+  <si>
+    <t>Lepidium virginicum</t>
+  </si>
+  <si>
+    <t>Echinochloa crus-galli</t>
+  </si>
+  <si>
+    <t>Barnyard Grass</t>
+  </si>
+  <si>
+    <t>Virginia pepper cress</t>
+  </si>
+  <si>
+    <t>Only seen L. virginicum in plots</t>
+  </si>
+  <si>
+    <t>ECHCRU</t>
+  </si>
+  <si>
+    <t>Saw Echinocloa crusgalli Y0 and confirmed w/ others this is the species at Bradford</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,6 +935,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -942,11 +967,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1251,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1262,1595 +1290,1899 @@
     <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
         <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>102</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
         <v>108</v>
       </c>
-      <c r="C5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="F11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+      <c r="G12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="F13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D17">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D20">
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D23">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
         <v>153</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>154</v>
       </c>
-      <c r="D26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C29" t="s">
         <v>156</v>
-      </c>
-      <c r="C28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" t="s">
-        <v>159</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D31">
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" t="s">
         <v>164</v>
-      </c>
-      <c r="C32" t="s">
-        <v>165</v>
-      </c>
-      <c r="D32" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" t="s">
-        <v>167</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" t="s">
         <v>168</v>
-      </c>
-      <c r="C34" t="s">
-        <v>169</v>
-      </c>
-      <c r="D34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" t="s">
-        <v>171</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C36" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" t="s">
         <v>174</v>
-      </c>
-      <c r="C37" t="s">
-        <v>175</v>
-      </c>
-      <c r="D37" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" t="s">
-        <v>177</v>
       </c>
       <c r="D38">
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D39">
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" t="s">
         <v>182</v>
-      </c>
-      <c r="C41" t="s">
-        <v>183</v>
-      </c>
-      <c r="D41" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>184</v>
-      </c>
-      <c r="C42" t="s">
-        <v>185</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C43" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C44" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D44">
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D45">
         <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" t="s">
         <v>192</v>
-      </c>
-      <c r="C46" t="s">
-        <v>193</v>
-      </c>
-      <c r="D46" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>195</v>
-      </c>
-      <c r="C47" t="s">
-        <v>196</v>
-      </c>
-      <c r="F47" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>197</v>
-      </c>
-      <c r="C48" t="s">
-        <v>198</v>
       </c>
       <c r="D48">
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C49" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D49">
         <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C50" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D50">
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
         <v>203</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C54" t="s">
         <v>204</v>
       </c>
-      <c r="D51" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="D54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
         <v>205</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C55" t="s">
         <v>206</v>
-      </c>
-      <c r="D52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E52" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>207</v>
-      </c>
-      <c r="C53" t="s">
-        <v>208</v>
-      </c>
-      <c r="D53" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>209</v>
-      </c>
-      <c r="C54" t="s">
-        <v>210</v>
-      </c>
-      <c r="D54" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>211</v>
-      </c>
-      <c r="C55" t="s">
-        <v>212</v>
       </c>
       <c r="D55">
         <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C56" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C57" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C58" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C60" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C61" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C62" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C63" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>103</v>
-      </c>
-      <c r="F63" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G63" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C64" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" t="s">
+        <v>225</v>
+      </c>
+      <c r="D65" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" t="s">
+        <v>227</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
+        <v>228</v>
+      </c>
+      <c r="C67" t="s">
+        <v>229</v>
+      </c>
+      <c r="D67" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" t="s">
+        <v>108</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
         <v>230</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C68" t="s">
         <v>231</v>
       </c>
-      <c r="D65" t="s">
-        <v>99</v>
-      </c>
-      <c r="E65" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="D68" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" t="s">
+        <v>108</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
         <v>232</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C69" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>234</v>
-      </c>
-      <c r="C67" t="s">
-        <v>235</v>
-      </c>
-      <c r="D67" t="s">
-        <v>99</v>
-      </c>
-      <c r="E67" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>236</v>
-      </c>
-      <c r="C68" t="s">
-        <v>237</v>
-      </c>
-      <c r="D68" t="s">
-        <v>99</v>
-      </c>
-      <c r="E68" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>238</v>
-      </c>
-      <c r="C69" t="s">
-        <v>239</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C70" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E70" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C71" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C72" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D72">
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C73" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C74" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D74" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E74" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C75" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D75">
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C76" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C77" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D77" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C78" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D78">
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79" t="s">
+        <v>253</v>
+      </c>
+      <c r="D79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" t="s">
+        <v>108</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" t="s">
+        <v>254</v>
+      </c>
+      <c r="C80" t="s">
+        <v>255</v>
+      </c>
+      <c r="D80" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" t="s">
+        <v>108</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B81" t="s">
+        <v>256</v>
+      </c>
+      <c r="C81" t="s">
+        <v>257</v>
+      </c>
+      <c r="D81" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" t="s">
+        <v>108</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" t="s">
         <v>258</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C82" t="s">
         <v>259</v>
-      </c>
-      <c r="D79" t="s">
-        <v>99</v>
-      </c>
-      <c r="E79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>260</v>
-      </c>
-      <c r="C80" t="s">
-        <v>261</v>
-      </c>
-      <c r="D80" t="s">
-        <v>99</v>
-      </c>
-      <c r="E80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>262</v>
-      </c>
-      <c r="C81" t="s">
-        <v>263</v>
-      </c>
-      <c r="D81" t="s">
-        <v>99</v>
-      </c>
-      <c r="E81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>264</v>
-      </c>
-      <c r="C82" t="s">
-        <v>265</v>
       </c>
       <c r="D82">
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C83" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C84" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C85" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D85">
         <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C86" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D86">
         <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C87" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D87">
         <v>6</v>
       </c>
       <c r="E87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C88" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" t="s">
+        <v>272</v>
+      </c>
+      <c r="C89" t="s">
+        <v>273</v>
+      </c>
+      <c r="D89" t="s">
+        <v>97</v>
+      </c>
+      <c r="E89" t="s">
+        <v>108</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>86</v>
+      </c>
+      <c r="B90" t="s">
+        <v>274</v>
+      </c>
+      <c r="C90" t="s">
+        <v>275</v>
+      </c>
+      <c r="D90" t="s">
+        <v>97</v>
+      </c>
+      <c r="E90" t="s">
+        <v>108</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B91" t="s">
+        <v>276</v>
+      </c>
+      <c r="C91" t="s">
+        <v>277</v>
+      </c>
+      <c r="D91" t="s">
+        <v>97</v>
+      </c>
+      <c r="E91" t="s">
+        <v>108</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92" t="s">
         <v>278</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C92" t="s">
         <v>279</v>
       </c>
-      <c r="D89" t="s">
-        <v>99</v>
-      </c>
-      <c r="E89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="D92" t="s">
+        <v>97</v>
+      </c>
+      <c r="E92" t="s">
+        <v>108</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" t="s">
         <v>280</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C93" t="s">
         <v>281</v>
-      </c>
-      <c r="D90" t="s">
-        <v>99</v>
-      </c>
-      <c r="E90" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>282</v>
-      </c>
-      <c r="C91" t="s">
-        <v>283</v>
-      </c>
-      <c r="D91" t="s">
-        <v>99</v>
-      </c>
-      <c r="E91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>284</v>
-      </c>
-      <c r="C92" t="s">
-        <v>285</v>
-      </c>
-      <c r="D92" t="s">
-        <v>99</v>
-      </c>
-      <c r="E92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>286</v>
-      </c>
-      <c r="C93" t="s">
-        <v>287</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C94" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D94">
         <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C95" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/Priority Effects - Github/Data/Species_List.xlsx
+++ b/Priority Effects - Github/Data/Species_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wynnekat/Priority-Effects/Priority Effects - Github/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91036EF2-375C-B54C-9DD1-F2826B52978B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35EC6A5-E7C5-1545-87DE-90A92E20CE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,14 +967,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1281,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1811,26 +1809,26 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>296</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>292</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s">
         <v>293</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="F27" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G27" t="s">
         <v>297</v>
       </c>
     </row>
@@ -2214,26 +2212,26 @@
         <v>287</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>290</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
         <v>291</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" t="s">
         <v>294</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="E47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G47" t="s">
         <v>295</v>
       </c>
     </row>
@@ -2802,7 +2800,7 @@
         <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -2822,7 +2820,7 @@
         <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
